--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
   </si>
@@ -57,6 +57,27 @@
   </si>
   <si>
     <t>3号</t>
+  </si>
+  <si>
+    <t>4号</t>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>6号</t>
+  </si>
+  <si>
+    <t>7号</t>
+  </si>
+  <si>
+    <t>8号</t>
+  </si>
+  <si>
+    <t>9号</t>
+  </si>
+  <si>
+    <t>10号</t>
   </si>
 </sst>
 </file>
@@ -1031,13 +1052,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="10.7765957446809" style="1"/>
   </cols>
@@ -1078,6 +1099,62 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyWebProject\nxbi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33A9637-A48A-4014-B18D-15EA47F7EA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB40BED7-25A9-4BA4-9304-C75CBD424740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -205,12 +205,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.5" x14ac:dyDescent="0.6"/>
@@ -600,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.6">
@@ -608,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.6">
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.6">
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.6">
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.6">
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.6">
@@ -648,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.6">
@@ -656,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.6">
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.6">
@@ -672,7 +672,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.6">
@@ -680,7 +680,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.6">
@@ -688,7 +688,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.6">
@@ -696,7 +696,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.6">
@@ -704,7 +704,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.6">
@@ -712,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.6">
@@ -720,7 +720,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.6">
@@ -728,7 +728,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.6">
@@ -744,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.6">
@@ -752,7 +752,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
